--- a/medicine/Psychotrope/Darguner_Brauerei/Darguner_Brauerei.xlsx
+++ b/medicine/Psychotrope/Darguner_Brauerei/Darguner_Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Darguner Brauerei est une brasserie à Dargun.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbaye de Dargun, fondée XIIe siècle, obtient le droit de brassage.
 Le 29 mai 1991, la brasserie est créée sous le nom de Darguner Klosterbrauerei. En raison d'un différend, elle devient simplement le 17 mars 1998 Darguner Brauerei.
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est une filiale de la brasserie danoise Harboes Bryggeri. Elle produit chaque année environ 1,5 million d'hectolitres de bière et 1,5 million d'hectolitres de boissons non alcoolisées. Les produits sont vendus en Allemagne généralement par différentes chaînes de vente au détail (en particulier Netto) et à l'exportation dans 90 pays.
 La gamme comprend des produits de différentes catégories : de la bière, des boissons énergétiques et gazeuses, des boissons aux fruits et de l'eau. Une partie essentielle est les boissons gazeuses de la marque Harboe qui n'est pas vendue en Allemagne.
